--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK\eclipse-workspace\MaruthiAssistance2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -101,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -548,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,10 +575,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +609,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -791,14 +784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
@@ -806,7 +799,7 @@
     <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -817,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -828,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -839,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -850,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -861,7 +854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -872,7 +865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -883,7 +876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -894,7 +887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
